--- a/sources/tablesKeys.xlsx
+++ b/sources/tablesKeys.xlsx
@@ -43,7 +43,16 @@
     <t>key</t>
   </si>
   <si>
-    <t>05-2022</t>
+    <t>08-2022</t>
+  </si>
+  <si>
+    <t>2022-08</t>
+  </si>
+  <si>
+    <t>2022-07</t>
+  </si>
+  <si>
+    <t>2022-06</t>
   </si>
   <si>
     <t>2022-05</t>
@@ -73,361 +82,352 @@
     <t>2021-09</t>
   </si>
   <si>
-    <t>2021-08</t>
-  </si>
-  <si>
-    <t>2021-07</t>
-  </si>
-  <si>
-    <t>2021-06</t>
-  </si>
-  <si>
-    <t>05-20222022-05-S4--2851437860874154238</t>
-  </si>
-  <si>
-    <t>05-20222022-04-S4--2851437860874154238</t>
-  </si>
-  <si>
-    <t>05-20222022-03-S4--2851437860874154238</t>
-  </si>
-  <si>
-    <t>05-20222022-02-S4--2851437860874154238</t>
-  </si>
-  <si>
-    <t>05-20222022-01-S4--2851437860874154238</t>
-  </si>
-  <si>
-    <t>05-20222021-12-S4--2851437860874154238</t>
-  </si>
-  <si>
-    <t>05-20222021-11-S4--2851437860874154238</t>
-  </si>
-  <si>
-    <t>05-20222021-10-S4--2851437860874154238</t>
-  </si>
-  <si>
-    <t>05-20222021-09-S4--2851437860874154238</t>
-  </si>
-  <si>
-    <t>05-20222021-08-S4--2851437860874154238</t>
-  </si>
-  <si>
-    <t>05-20222021-07-S4--2851437860874154238</t>
-  </si>
-  <si>
-    <t>05-20222021-06-S4--2851437860874154238</t>
-  </si>
-  <si>
-    <t>05-20222022-05-S4--509506652257525041</t>
-  </si>
-  <si>
-    <t>05-20222022-04-S4--509506652257525041</t>
-  </si>
-  <si>
-    <t>05-20222022-03-S4--509506652257525041</t>
-  </si>
-  <si>
-    <t>05-20222022-02-S4--509506652257525041</t>
-  </si>
-  <si>
-    <t>05-20222022-01-S4--509506652257525041</t>
-  </si>
-  <si>
-    <t>05-20222021-12-S4--509506652257525041</t>
-  </si>
-  <si>
-    <t>05-20222021-11-S4--509506652257525041</t>
-  </si>
-  <si>
-    <t>05-20222021-10-S4--509506652257525041</t>
-  </si>
-  <si>
-    <t>05-20222021-09-S4--509506652257525041</t>
-  </si>
-  <si>
-    <t>05-20222021-08-S4--509506652257525041</t>
-  </si>
-  <si>
-    <t>05-20222021-07-S4--509506652257525041</t>
-  </si>
-  <si>
-    <t>05-20222021-06-S4--509506652257525041</t>
-  </si>
-  <si>
-    <t>05-20222022-05-S4-2094212419407978701</t>
-  </si>
-  <si>
-    <t>05-20222022-04-S4-2094212419407978701</t>
-  </si>
-  <si>
-    <t>05-20222022-03-S4-2094212419407978701</t>
-  </si>
-  <si>
-    <t>05-20222022-02-S4-2094212419407978701</t>
-  </si>
-  <si>
-    <t>05-20222022-01-S4-2094212419407978701</t>
-  </si>
-  <si>
-    <t>05-20222021-12-S4-2094212419407978701</t>
-  </si>
-  <si>
-    <t>05-20222021-11-S4-2094212419407978701</t>
-  </si>
-  <si>
-    <t>05-20222021-10-S4-2094212419407978701</t>
-  </si>
-  <si>
-    <t>05-20222021-09-S4-2094212419407978701</t>
-  </si>
-  <si>
-    <t>05-20222021-08-S4-2094212419407978701</t>
-  </si>
-  <si>
-    <t>05-20222021-07-S4-2094212419407978701</t>
-  </si>
-  <si>
-    <t>05-20222021-06-S4-2094212419407978701</t>
-  </si>
-  <si>
-    <t>05-20222022-05-S4--7397188361091835464</t>
-  </si>
-  <si>
-    <t>05-20222022-04-S4--7397188361091835464</t>
-  </si>
-  <si>
-    <t>05-20222022-03-S4--7397188361091835464</t>
-  </si>
-  <si>
-    <t>05-20222022-02-S4--7397188361091835464</t>
-  </si>
-  <si>
-    <t>05-20222022-01-S4--7397188361091835464</t>
-  </si>
-  <si>
-    <t>05-20222021-12-S4--7397188361091835464</t>
-  </si>
-  <si>
-    <t>05-20222021-11-S4--7397188361091835464</t>
-  </si>
-  <si>
-    <t>05-20222021-10-S4--7397188361091835464</t>
-  </si>
-  <si>
-    <t>05-20222021-09-S4--7397188361091835464</t>
-  </si>
-  <si>
-    <t>05-20222021-08-S4--7397188361091835464</t>
-  </si>
-  <si>
-    <t>05-20222021-07-S4--7397188361091835464</t>
-  </si>
-  <si>
-    <t>05-20222021-06-S4--7397188361091835464</t>
-  </si>
-  <si>
-    <t>05-20222022-05-S4--7881677267970682678</t>
-  </si>
-  <si>
-    <t>05-20222022-04-S4--7881677267970682678</t>
-  </si>
-  <si>
-    <t>05-20222022-03-S4--7881677267970682678</t>
-  </si>
-  <si>
-    <t>05-20222022-02-S4--7881677267970682678</t>
-  </si>
-  <si>
-    <t>05-20222022-01-S4--7881677267970682678</t>
-  </si>
-  <si>
-    <t>05-20222021-12-S4--7881677267970682678</t>
-  </si>
-  <si>
-    <t>05-20222021-11-S4--7881677267970682678</t>
-  </si>
-  <si>
-    <t>05-20222021-10-S4--7881677267970682678</t>
-  </si>
-  <si>
-    <t>05-20222021-09-S4--7881677267970682678</t>
-  </si>
-  <si>
-    <t>05-20222021-08-S4--7881677267970682678</t>
-  </si>
-  <si>
-    <t>05-20222021-07-S4--7881677267970682678</t>
-  </si>
-  <si>
-    <t>05-20222021-06-S4--7881677267970682678</t>
-  </si>
-  <si>
-    <t>05-20222022-05-S4-2871544498335202068</t>
-  </si>
-  <si>
-    <t>05-20222022-04-S4-2871544498335202068</t>
-  </si>
-  <si>
-    <t>05-20222022-03-S4-2871544498335202068</t>
-  </si>
-  <si>
-    <t>05-20222022-02-S4-2871544498335202068</t>
-  </si>
-  <si>
-    <t>05-20222022-01-S4-2871544498335202068</t>
-  </si>
-  <si>
-    <t>05-20222021-12-S4-2871544498335202068</t>
-  </si>
-  <si>
-    <t>05-20222021-11-S4-2871544498335202068</t>
-  </si>
-  <si>
-    <t>05-20222021-10-S4-2871544498335202068</t>
-  </si>
-  <si>
-    <t>05-20222021-09-S4-2871544498335202068</t>
-  </si>
-  <si>
-    <t>05-20222021-08-S4-2871544498335202068</t>
-  </si>
-  <si>
-    <t>05-20222021-07-S4-2871544498335202068</t>
-  </si>
-  <si>
-    <t>05-20222021-06-S4-2871544498335202068</t>
-  </si>
-  <si>
-    <t>05-20222022-05-S4-4772451207491736308</t>
-  </si>
-  <si>
-    <t>05-20222022-04-S4-4772451207491736308</t>
-  </si>
-  <si>
-    <t>05-20222022-03-S4-4772451207491736308</t>
-  </si>
-  <si>
-    <t>05-20222022-02-S4-4772451207491736308</t>
-  </si>
-  <si>
-    <t>05-20222022-01-S4-4772451207491736308</t>
-  </si>
-  <si>
-    <t>05-20222021-12-S4-4772451207491736308</t>
-  </si>
-  <si>
-    <t>05-20222021-11-S4-4772451207491736308</t>
-  </si>
-  <si>
-    <t>05-20222021-10-S4-4772451207491736308</t>
-  </si>
-  <si>
-    <t>05-20222021-09-S4-4772451207491736308</t>
-  </si>
-  <si>
-    <t>05-20222021-08-S4-4772451207491736308</t>
-  </si>
-  <si>
-    <t>05-20222021-07-S4-4772451207491736308</t>
-  </si>
-  <si>
-    <t>05-20222021-06-S4-4772451207491736308</t>
-  </si>
-  <si>
-    <t>05-20222022-05-S4-8817011547750882798</t>
-  </si>
-  <si>
-    <t>05-20222022-04-S4-8817011547750882798</t>
-  </si>
-  <si>
-    <t>05-20222022-03-S4-8817011547750882798</t>
-  </si>
-  <si>
-    <t>05-20222022-02-S4-8817011547750882798</t>
-  </si>
-  <si>
-    <t>05-20222022-01-S4-8817011547750882798</t>
-  </si>
-  <si>
-    <t>05-20222021-12-S4-8817011547750882798</t>
-  </si>
-  <si>
-    <t>05-20222021-11-S4-8817011547750882798</t>
-  </si>
-  <si>
-    <t>05-20222021-10-S4-8817011547750882798</t>
-  </si>
-  <si>
-    <t>05-20222021-09-S4-8817011547750882798</t>
-  </si>
-  <si>
-    <t>05-20222021-08-S4-8817011547750882798</t>
-  </si>
-  <si>
-    <t>05-20222021-07-S4-8817011547750882798</t>
-  </si>
-  <si>
-    <t>05-20222021-06-S4-8817011547750882798</t>
-  </si>
-  <si>
-    <t>05-20222022-05-S4--9004652863211101087</t>
-  </si>
-  <si>
-    <t>05-20222022-04-S4--9004652863211101087</t>
-  </si>
-  <si>
-    <t>05-20222022-03-S4--9004652863211101087</t>
-  </si>
-  <si>
-    <t>05-20222022-02-S4--9004652863211101087</t>
-  </si>
-  <si>
-    <t>05-20222022-01-S4--9004652863211101087</t>
-  </si>
-  <si>
-    <t>05-20222021-12-S4--9004652863211101087</t>
-  </si>
-  <si>
-    <t>05-20222021-11-S4--9004652863211101087</t>
-  </si>
-  <si>
-    <t>05-20222021-10-S4--9004652863211101087</t>
-  </si>
-  <si>
-    <t>05-20222021-09-S4--9004652863211101087</t>
-  </si>
-  <si>
-    <t>05-20222021-08-S4--9004652863211101087</t>
-  </si>
-  <si>
-    <t>05-20222021-07-S4--9004652863211101087</t>
-  </si>
-  <si>
-    <t>05-20222021-06-S4--9004652863211101087</t>
-  </si>
-  <si>
-    <t>05-20222022-05-S4--4150816302961063119</t>
-  </si>
-  <si>
-    <t>05-20222022-04-S4--4150816302961063119</t>
-  </si>
-  <si>
-    <t>05-20222022-03-S4--4150816302961063119</t>
-  </si>
-  <si>
-    <t>05-20222022-02-S4--4150816302961063119</t>
-  </si>
-  <si>
-    <t>05-20222022-01-S4--4150816302961063119</t>
-  </si>
-  <si>
-    <t>05-20222021-12-S4--4150816302961063119</t>
+    <t>08-20222022-08-S4-6027182160254674012</t>
+  </si>
+  <si>
+    <t>08-20222022-07-S4-6027182160254674012</t>
+  </si>
+  <si>
+    <t>08-20222022-06-S4-6027182160254674012</t>
+  </si>
+  <si>
+    <t>08-20222022-05-S4-6027182160254674012</t>
+  </si>
+  <si>
+    <t>08-20222022-04-S4-6027182160254674012</t>
+  </si>
+  <si>
+    <t>08-20222022-03-S4-6027182160254674012</t>
+  </si>
+  <si>
+    <t>08-20222022-02-S4-6027182160254674012</t>
+  </si>
+  <si>
+    <t>08-20222022-01-S4-6027182160254674012</t>
+  </si>
+  <si>
+    <t>08-20222021-12-S4-6027182160254674012</t>
+  </si>
+  <si>
+    <t>08-20222021-11-S4-6027182160254674012</t>
+  </si>
+  <si>
+    <t>08-20222021-10-S4-6027182160254674012</t>
+  </si>
+  <si>
+    <t>08-20222021-09-S4-6027182160254674012</t>
+  </si>
+  <si>
+    <t>08-20222022-08-S4--2775517271807959286</t>
+  </si>
+  <si>
+    <t>08-20222022-07-S4--2775517271807959286</t>
+  </si>
+  <si>
+    <t>08-20222022-06-S4--2775517271807959286</t>
+  </si>
+  <si>
+    <t>08-20222022-05-S4--2775517271807959286</t>
+  </si>
+  <si>
+    <t>08-20222022-04-S4--2775517271807959286</t>
+  </si>
+  <si>
+    <t>08-20222022-03-S4--2775517271807959286</t>
+  </si>
+  <si>
+    <t>08-20222022-02-S4--2775517271807959286</t>
+  </si>
+  <si>
+    <t>08-20222022-01-S4--2775517271807959286</t>
+  </si>
+  <si>
+    <t>08-20222021-12-S4--2775517271807959286</t>
+  </si>
+  <si>
+    <t>08-20222021-11-S4--2775517271807959286</t>
+  </si>
+  <si>
+    <t>08-20222021-10-S4--2775517271807959286</t>
+  </si>
+  <si>
+    <t>08-20222021-09-S4--2775517271807959286</t>
+  </si>
+  <si>
+    <t>08-20222022-08-S4-1436373993569603291</t>
+  </si>
+  <si>
+    <t>08-20222022-07-S4-1436373993569603291</t>
+  </si>
+  <si>
+    <t>08-20222022-06-S4-1436373993569603291</t>
+  </si>
+  <si>
+    <t>08-20222022-05-S4-1436373993569603291</t>
+  </si>
+  <si>
+    <t>08-20222022-04-S4-1436373993569603291</t>
+  </si>
+  <si>
+    <t>08-20222022-03-S4-1436373993569603291</t>
+  </si>
+  <si>
+    <t>08-20222022-02-S4-1436373993569603291</t>
+  </si>
+  <si>
+    <t>08-20222022-01-S4-1436373993569603291</t>
+  </si>
+  <si>
+    <t>08-20222021-12-S4-1436373993569603291</t>
+  </si>
+  <si>
+    <t>08-20222021-11-S4-1436373993569603291</t>
+  </si>
+  <si>
+    <t>08-20222021-10-S4-1436373993569603291</t>
+  </si>
+  <si>
+    <t>08-20222021-09-S4-1436373993569603291</t>
+  </si>
+  <si>
+    <t>08-20222022-08-S4-3949159739456542335</t>
+  </si>
+  <si>
+    <t>08-20222022-07-S4-3949159739456542335</t>
+  </si>
+  <si>
+    <t>08-20222022-06-S4-3949159739456542335</t>
+  </si>
+  <si>
+    <t>08-20222022-05-S4-3949159739456542335</t>
+  </si>
+  <si>
+    <t>08-20222022-04-S4-3949159739456542335</t>
+  </si>
+  <si>
+    <t>08-20222022-03-S4-3949159739456542335</t>
+  </si>
+  <si>
+    <t>08-20222022-02-S4-3949159739456542335</t>
+  </si>
+  <si>
+    <t>08-20222022-01-S4-3949159739456542335</t>
+  </si>
+  <si>
+    <t>08-20222021-12-S4-3949159739456542335</t>
+  </si>
+  <si>
+    <t>08-20222021-11-S4-3949159739456542335</t>
+  </si>
+  <si>
+    <t>08-20222021-10-S4-3949159739456542335</t>
+  </si>
+  <si>
+    <t>08-20222021-09-S4-3949159739456542335</t>
+  </si>
+  <si>
+    <t>08-20222022-08-S4-1405657959012040507</t>
+  </si>
+  <si>
+    <t>08-20222022-07-S4-1405657959012040507</t>
+  </si>
+  <si>
+    <t>08-20222022-06-S4-1405657959012040507</t>
+  </si>
+  <si>
+    <t>08-20222022-05-S4-1405657959012040507</t>
+  </si>
+  <si>
+    <t>08-20222022-04-S4-1405657959012040507</t>
+  </si>
+  <si>
+    <t>08-20222022-03-S4-1405657959012040507</t>
+  </si>
+  <si>
+    <t>08-20222022-02-S4-1405657959012040507</t>
+  </si>
+  <si>
+    <t>08-20222022-01-S4-1405657959012040507</t>
+  </si>
+  <si>
+    <t>08-20222021-12-S4-1405657959012040507</t>
+  </si>
+  <si>
+    <t>08-20222021-11-S4-1405657959012040507</t>
+  </si>
+  <si>
+    <t>08-20222021-10-S4-1405657959012040507</t>
+  </si>
+  <si>
+    <t>08-20222021-09-S4-1405657959012040507</t>
+  </si>
+  <si>
+    <t>08-20222022-08-S4-7797922342143942231</t>
+  </si>
+  <si>
+    <t>08-20222022-07-S4-7797922342143942231</t>
+  </si>
+  <si>
+    <t>08-20222022-06-S4-7797922342143942231</t>
+  </si>
+  <si>
+    <t>08-20222022-05-S4-7797922342143942231</t>
+  </si>
+  <si>
+    <t>08-20222022-04-S4-7797922342143942231</t>
+  </si>
+  <si>
+    <t>08-20222022-03-S4-7797922342143942231</t>
+  </si>
+  <si>
+    <t>08-20222022-02-S4-7797922342143942231</t>
+  </si>
+  <si>
+    <t>08-20222022-01-S4-7797922342143942231</t>
+  </si>
+  <si>
+    <t>08-20222021-12-S4-7797922342143942231</t>
+  </si>
+  <si>
+    <t>08-20222021-11-S4-7797922342143942231</t>
+  </si>
+  <si>
+    <t>08-20222021-10-S4-7797922342143942231</t>
+  </si>
+  <si>
+    <t>08-20222021-09-S4-7797922342143942231</t>
+  </si>
+  <si>
+    <t>08-20222022-08-S4-6889327695264470108</t>
+  </si>
+  <si>
+    <t>08-20222022-07-S4-6889327695264470108</t>
+  </si>
+  <si>
+    <t>08-20222022-06-S4-6889327695264470108</t>
+  </si>
+  <si>
+    <t>08-20222022-05-S4-6889327695264470108</t>
+  </si>
+  <si>
+    <t>08-20222022-04-S4-6889327695264470108</t>
+  </si>
+  <si>
+    <t>08-20222022-03-S4-6889327695264470108</t>
+  </si>
+  <si>
+    <t>08-20222022-02-S4-6889327695264470108</t>
+  </si>
+  <si>
+    <t>08-20222022-01-S4-6889327695264470108</t>
+  </si>
+  <si>
+    <t>08-20222021-12-S4-6889327695264470108</t>
+  </si>
+  <si>
+    <t>08-20222021-11-S4-6889327695264470108</t>
+  </si>
+  <si>
+    <t>08-20222021-10-S4-6889327695264470108</t>
+  </si>
+  <si>
+    <t>08-20222021-09-S4-6889327695264470108</t>
+  </si>
+  <si>
+    <t>08-20222022-08-S4-3745855275704317998</t>
+  </si>
+  <si>
+    <t>08-20222022-07-S4-3745855275704317998</t>
+  </si>
+  <si>
+    <t>08-20222022-06-S4-3745855275704317998</t>
+  </si>
+  <si>
+    <t>08-20222022-05-S4-3745855275704317998</t>
+  </si>
+  <si>
+    <t>08-20222022-04-S4-3745855275704317998</t>
+  </si>
+  <si>
+    <t>08-20222022-03-S4-3745855275704317998</t>
+  </si>
+  <si>
+    <t>08-20222022-02-S4-3745855275704317998</t>
+  </si>
+  <si>
+    <t>08-20222022-01-S4-3745855275704317998</t>
+  </si>
+  <si>
+    <t>08-20222021-12-S4-3745855275704317998</t>
+  </si>
+  <si>
+    <t>08-20222021-11-S4-3745855275704317998</t>
+  </si>
+  <si>
+    <t>08-20222021-10-S4-3745855275704317998</t>
+  </si>
+  <si>
+    <t>08-20222021-09-S4-3745855275704317998</t>
+  </si>
+  <si>
+    <t>08-20222022-08-S4-469154168995784703</t>
+  </si>
+  <si>
+    <t>08-20222022-07-S4-469154168995784703</t>
+  </si>
+  <si>
+    <t>08-20222022-06-S4-469154168995784703</t>
+  </si>
+  <si>
+    <t>08-20222022-05-S4-469154168995784703</t>
+  </si>
+  <si>
+    <t>08-20222022-04-S4-469154168995784703</t>
+  </si>
+  <si>
+    <t>08-20222022-03-S4-469154168995784703</t>
+  </si>
+  <si>
+    <t>08-20222022-02-S4-469154168995784703</t>
+  </si>
+  <si>
+    <t>08-20222022-01-S4-469154168995784703</t>
+  </si>
+  <si>
+    <t>08-20222021-12-S4-469154168995784703</t>
+  </si>
+  <si>
+    <t>08-20222021-11-S4-469154168995784703</t>
+  </si>
+  <si>
+    <t>08-20222021-10-S4-469154168995784703</t>
+  </si>
+  <si>
+    <t>08-20222021-09-S4-469154168995784703</t>
+  </si>
+  <si>
+    <t>08-20222022-08-S4--9219303449770362415</t>
+  </si>
+  <si>
+    <t>08-20222022-07-S4--9219303449770362415</t>
+  </si>
+  <si>
+    <t>08-20222022-06-S4--9219303449770362415</t>
+  </si>
+  <si>
+    <t>08-20222022-05-S4--9219303449770362415</t>
+  </si>
+  <si>
+    <t>08-20222022-04-S4--9219303449770362415</t>
+  </si>
+  <si>
+    <t>08-20222022-03-S4--9219303449770362415</t>
   </si>
   <si>
     <t>biac_kpi502</t>
   </si>
   <si>
-    <t>2022-06</t>
+    <t>2022-09</t>
   </si>
   <si>
     <t>Lot1 (BACHEA)</t>
@@ -442,10 +442,10 @@
     <t>Lot2 HVAC PB/NT (BACHVA)</t>
   </si>
   <si>
+    <t>Lot2 HVAC PA (BACSAN)</t>
+  </si>
+  <si>
     <t>Lot2 SANI (BACSAN)</t>
-  </si>
-  <si>
-    <t>Lot2 HVAC PA (BACSAN)</t>
   </si>
   <si>
     <t>Lot2 ACCESS (BACFIR)</t>

--- a/sources/tablesKeys.xlsx
+++ b/sources/tablesKeys.xlsx
@@ -82,346 +82,346 @@
     <t>2021-09</t>
   </si>
   <si>
-    <t>08-20222022-08-S4-6027182160254674012</t>
-  </si>
-  <si>
-    <t>08-20222022-07-S4-6027182160254674012</t>
-  </si>
-  <si>
-    <t>08-20222022-06-S4-6027182160254674012</t>
-  </si>
-  <si>
-    <t>08-20222022-05-S4-6027182160254674012</t>
-  </si>
-  <si>
-    <t>08-20222022-04-S4-6027182160254674012</t>
-  </si>
-  <si>
-    <t>08-20222022-03-S4-6027182160254674012</t>
-  </si>
-  <si>
-    <t>08-20222022-02-S4-6027182160254674012</t>
-  </si>
-  <si>
-    <t>08-20222022-01-S4-6027182160254674012</t>
-  </si>
-  <si>
-    <t>08-20222021-12-S4-6027182160254674012</t>
-  </si>
-  <si>
-    <t>08-20222021-11-S4-6027182160254674012</t>
-  </si>
-  <si>
-    <t>08-20222021-10-S4-6027182160254674012</t>
-  </si>
-  <si>
-    <t>08-20222021-09-S4-6027182160254674012</t>
-  </si>
-  <si>
-    <t>08-20222022-08-S4--2775517271807959286</t>
-  </si>
-  <si>
-    <t>08-20222022-07-S4--2775517271807959286</t>
-  </si>
-  <si>
-    <t>08-20222022-06-S4--2775517271807959286</t>
-  </si>
-  <si>
-    <t>08-20222022-05-S4--2775517271807959286</t>
-  </si>
-  <si>
-    <t>08-20222022-04-S4--2775517271807959286</t>
-  </si>
-  <si>
-    <t>08-20222022-03-S4--2775517271807959286</t>
-  </si>
-  <si>
-    <t>08-20222022-02-S4--2775517271807959286</t>
-  </si>
-  <si>
-    <t>08-20222022-01-S4--2775517271807959286</t>
-  </si>
-  <si>
-    <t>08-20222021-12-S4--2775517271807959286</t>
-  </si>
-  <si>
-    <t>08-20222021-11-S4--2775517271807959286</t>
-  </si>
-  <si>
-    <t>08-20222021-10-S4--2775517271807959286</t>
-  </si>
-  <si>
-    <t>08-20222021-09-S4--2775517271807959286</t>
-  </si>
-  <si>
-    <t>08-20222022-08-S4-1436373993569603291</t>
-  </si>
-  <si>
-    <t>08-20222022-07-S4-1436373993569603291</t>
-  </si>
-  <si>
-    <t>08-20222022-06-S4-1436373993569603291</t>
-  </si>
-  <si>
-    <t>08-20222022-05-S4-1436373993569603291</t>
-  </si>
-  <si>
-    <t>08-20222022-04-S4-1436373993569603291</t>
-  </si>
-  <si>
-    <t>08-20222022-03-S4-1436373993569603291</t>
-  </si>
-  <si>
-    <t>08-20222022-02-S4-1436373993569603291</t>
-  </si>
-  <si>
-    <t>08-20222022-01-S4-1436373993569603291</t>
-  </si>
-  <si>
-    <t>08-20222021-12-S4-1436373993569603291</t>
-  </si>
-  <si>
-    <t>08-20222021-11-S4-1436373993569603291</t>
-  </si>
-  <si>
-    <t>08-20222021-10-S4-1436373993569603291</t>
-  </si>
-  <si>
-    <t>08-20222021-09-S4-1436373993569603291</t>
-  </si>
-  <si>
-    <t>08-20222022-08-S4-3949159739456542335</t>
-  </si>
-  <si>
-    <t>08-20222022-07-S4-3949159739456542335</t>
-  </si>
-  <si>
-    <t>08-20222022-06-S4-3949159739456542335</t>
-  </si>
-  <si>
-    <t>08-20222022-05-S4-3949159739456542335</t>
-  </si>
-  <si>
-    <t>08-20222022-04-S4-3949159739456542335</t>
-  </si>
-  <si>
-    <t>08-20222022-03-S4-3949159739456542335</t>
-  </si>
-  <si>
-    <t>08-20222022-02-S4-3949159739456542335</t>
-  </si>
-  <si>
-    <t>08-20222022-01-S4-3949159739456542335</t>
-  </si>
-  <si>
-    <t>08-20222021-12-S4-3949159739456542335</t>
-  </si>
-  <si>
-    <t>08-20222021-11-S4-3949159739456542335</t>
-  </si>
-  <si>
-    <t>08-20222021-10-S4-3949159739456542335</t>
-  </si>
-  <si>
-    <t>08-20222021-09-S4-3949159739456542335</t>
-  </si>
-  <si>
-    <t>08-20222022-08-S4-1405657959012040507</t>
-  </si>
-  <si>
-    <t>08-20222022-07-S4-1405657959012040507</t>
-  </si>
-  <si>
-    <t>08-20222022-06-S4-1405657959012040507</t>
-  </si>
-  <si>
-    <t>08-20222022-05-S4-1405657959012040507</t>
-  </si>
-  <si>
-    <t>08-20222022-04-S4-1405657959012040507</t>
-  </si>
-  <si>
-    <t>08-20222022-03-S4-1405657959012040507</t>
-  </si>
-  <si>
-    <t>08-20222022-02-S4-1405657959012040507</t>
-  </si>
-  <si>
-    <t>08-20222022-01-S4-1405657959012040507</t>
-  </si>
-  <si>
-    <t>08-20222021-12-S4-1405657959012040507</t>
-  </si>
-  <si>
-    <t>08-20222021-11-S4-1405657959012040507</t>
-  </si>
-  <si>
-    <t>08-20222021-10-S4-1405657959012040507</t>
-  </si>
-  <si>
-    <t>08-20222021-09-S4-1405657959012040507</t>
-  </si>
-  <si>
-    <t>08-20222022-08-S4-7797922342143942231</t>
-  </si>
-  <si>
-    <t>08-20222022-07-S4-7797922342143942231</t>
-  </si>
-  <si>
-    <t>08-20222022-06-S4-7797922342143942231</t>
-  </si>
-  <si>
-    <t>08-20222022-05-S4-7797922342143942231</t>
-  </si>
-  <si>
-    <t>08-20222022-04-S4-7797922342143942231</t>
-  </si>
-  <si>
-    <t>08-20222022-03-S4-7797922342143942231</t>
-  </si>
-  <si>
-    <t>08-20222022-02-S4-7797922342143942231</t>
-  </si>
-  <si>
-    <t>08-20222022-01-S4-7797922342143942231</t>
-  </si>
-  <si>
-    <t>08-20222021-12-S4-7797922342143942231</t>
-  </si>
-  <si>
-    <t>08-20222021-11-S4-7797922342143942231</t>
-  </si>
-  <si>
-    <t>08-20222021-10-S4-7797922342143942231</t>
-  </si>
-  <si>
-    <t>08-20222021-09-S4-7797922342143942231</t>
-  </si>
-  <si>
-    <t>08-20222022-08-S4-6889327695264470108</t>
-  </si>
-  <si>
-    <t>08-20222022-07-S4-6889327695264470108</t>
-  </si>
-  <si>
-    <t>08-20222022-06-S4-6889327695264470108</t>
-  </si>
-  <si>
-    <t>08-20222022-05-S4-6889327695264470108</t>
-  </si>
-  <si>
-    <t>08-20222022-04-S4-6889327695264470108</t>
-  </si>
-  <si>
-    <t>08-20222022-03-S4-6889327695264470108</t>
-  </si>
-  <si>
-    <t>08-20222022-02-S4-6889327695264470108</t>
-  </si>
-  <si>
-    <t>08-20222022-01-S4-6889327695264470108</t>
-  </si>
-  <si>
-    <t>08-20222021-12-S4-6889327695264470108</t>
-  </si>
-  <si>
-    <t>08-20222021-11-S4-6889327695264470108</t>
-  </si>
-  <si>
-    <t>08-20222021-10-S4-6889327695264470108</t>
-  </si>
-  <si>
-    <t>08-20222021-09-S4-6889327695264470108</t>
-  </si>
-  <si>
-    <t>08-20222022-08-S4-3745855275704317998</t>
-  </si>
-  <si>
-    <t>08-20222022-07-S4-3745855275704317998</t>
-  </si>
-  <si>
-    <t>08-20222022-06-S4-3745855275704317998</t>
-  </si>
-  <si>
-    <t>08-20222022-05-S4-3745855275704317998</t>
-  </si>
-  <si>
-    <t>08-20222022-04-S4-3745855275704317998</t>
-  </si>
-  <si>
-    <t>08-20222022-03-S4-3745855275704317998</t>
-  </si>
-  <si>
-    <t>08-20222022-02-S4-3745855275704317998</t>
-  </si>
-  <si>
-    <t>08-20222022-01-S4-3745855275704317998</t>
-  </si>
-  <si>
-    <t>08-20222021-12-S4-3745855275704317998</t>
-  </si>
-  <si>
-    <t>08-20222021-11-S4-3745855275704317998</t>
-  </si>
-  <si>
-    <t>08-20222021-10-S4-3745855275704317998</t>
-  </si>
-  <si>
-    <t>08-20222021-09-S4-3745855275704317998</t>
-  </si>
-  <si>
-    <t>08-20222022-08-S4-469154168995784703</t>
-  </si>
-  <si>
-    <t>08-20222022-07-S4-469154168995784703</t>
-  </si>
-  <si>
-    <t>08-20222022-06-S4-469154168995784703</t>
-  </si>
-  <si>
-    <t>08-20222022-05-S4-469154168995784703</t>
-  </si>
-  <si>
-    <t>08-20222022-04-S4-469154168995784703</t>
-  </si>
-  <si>
-    <t>08-20222022-03-S4-469154168995784703</t>
-  </si>
-  <si>
-    <t>08-20222022-02-S4-469154168995784703</t>
-  </si>
-  <si>
-    <t>08-20222022-01-S4-469154168995784703</t>
-  </si>
-  <si>
-    <t>08-20222021-12-S4-469154168995784703</t>
-  </si>
-  <si>
-    <t>08-20222021-11-S4-469154168995784703</t>
-  </si>
-  <si>
-    <t>08-20222021-10-S4-469154168995784703</t>
-  </si>
-  <si>
-    <t>08-20222021-09-S4-469154168995784703</t>
-  </si>
-  <si>
-    <t>08-20222022-08-S4--9219303449770362415</t>
-  </si>
-  <si>
-    <t>08-20222022-07-S4--9219303449770362415</t>
-  </si>
-  <si>
-    <t>08-20222022-06-S4--9219303449770362415</t>
-  </si>
-  <si>
-    <t>08-20222022-05-S4--9219303449770362415</t>
-  </si>
-  <si>
-    <t>08-20222022-04-S4--9219303449770362415</t>
-  </si>
-  <si>
-    <t>08-20222022-03-S4--9219303449770362415</t>
+    <t>08-20222022-08-S4-7330812168440384896</t>
+  </si>
+  <si>
+    <t>08-20222022-07-S4-7330812168440384896</t>
+  </si>
+  <si>
+    <t>08-20222022-06-S4-7330812168440384896</t>
+  </si>
+  <si>
+    <t>08-20222022-05-S4-7330812168440384896</t>
+  </si>
+  <si>
+    <t>08-20222022-04-S4-7330812168440384896</t>
+  </si>
+  <si>
+    <t>08-20222022-03-S4-7330812168440384896</t>
+  </si>
+  <si>
+    <t>08-20222022-02-S4-7330812168440384896</t>
+  </si>
+  <si>
+    <t>08-20222022-01-S4-7330812168440384896</t>
+  </si>
+  <si>
+    <t>08-20222021-12-S4-7330812168440384896</t>
+  </si>
+  <si>
+    <t>08-20222021-11-S4-7330812168440384896</t>
+  </si>
+  <si>
+    <t>08-20222021-10-S4-7330812168440384896</t>
+  </si>
+  <si>
+    <t>08-20222021-09-S4-7330812168440384896</t>
+  </si>
+  <si>
+    <t>08-20222022-08-S4-4154347881861881147</t>
+  </si>
+  <si>
+    <t>08-20222022-07-S4-4154347881861881147</t>
+  </si>
+  <si>
+    <t>08-20222022-06-S4-4154347881861881147</t>
+  </si>
+  <si>
+    <t>08-20222022-05-S4-4154347881861881147</t>
+  </si>
+  <si>
+    <t>08-20222022-04-S4-4154347881861881147</t>
+  </si>
+  <si>
+    <t>08-20222022-03-S4-4154347881861881147</t>
+  </si>
+  <si>
+    <t>08-20222022-02-S4-4154347881861881147</t>
+  </si>
+  <si>
+    <t>08-20222022-01-S4-4154347881861881147</t>
+  </si>
+  <si>
+    <t>08-20222021-12-S4-4154347881861881147</t>
+  </si>
+  <si>
+    <t>08-20222021-11-S4-4154347881861881147</t>
+  </si>
+  <si>
+    <t>08-20222021-10-S4-4154347881861881147</t>
+  </si>
+  <si>
+    <t>08-20222021-09-S4-4154347881861881147</t>
+  </si>
+  <si>
+    <t>08-20222022-08-S4-5053867866719793570</t>
+  </si>
+  <si>
+    <t>08-20222022-07-S4-5053867866719793570</t>
+  </si>
+  <si>
+    <t>08-20222022-06-S4-5053867866719793570</t>
+  </si>
+  <si>
+    <t>08-20222022-05-S4-5053867866719793570</t>
+  </si>
+  <si>
+    <t>08-20222022-04-S4-5053867866719793570</t>
+  </si>
+  <si>
+    <t>08-20222022-03-S4-5053867866719793570</t>
+  </si>
+  <si>
+    <t>08-20222022-02-S4-5053867866719793570</t>
+  </si>
+  <si>
+    <t>08-20222022-01-S4-5053867866719793570</t>
+  </si>
+  <si>
+    <t>08-20222021-12-S4-5053867866719793570</t>
+  </si>
+  <si>
+    <t>08-20222021-11-S4-5053867866719793570</t>
+  </si>
+  <si>
+    <t>08-20222021-10-S4-5053867866719793570</t>
+  </si>
+  <si>
+    <t>08-20222021-09-S4-5053867866719793570</t>
+  </si>
+  <si>
+    <t>08-20222022-08-S4-1126062346673995035</t>
+  </si>
+  <si>
+    <t>08-20222022-07-S4-1126062346673995035</t>
+  </si>
+  <si>
+    <t>08-20222022-06-S4-1126062346673995035</t>
+  </si>
+  <si>
+    <t>08-20222022-05-S4-1126062346673995035</t>
+  </si>
+  <si>
+    <t>08-20222022-04-S4-1126062346673995035</t>
+  </si>
+  <si>
+    <t>08-20222022-03-S4-1126062346673995035</t>
+  </si>
+  <si>
+    <t>08-20222022-02-S4-1126062346673995035</t>
+  </si>
+  <si>
+    <t>08-20222022-01-S4-1126062346673995035</t>
+  </si>
+  <si>
+    <t>08-20222021-12-S4-1126062346673995035</t>
+  </si>
+  <si>
+    <t>08-20222021-11-S4-1126062346673995035</t>
+  </si>
+  <si>
+    <t>08-20222021-10-S4-1126062346673995035</t>
+  </si>
+  <si>
+    <t>08-20222021-09-S4-1126062346673995035</t>
+  </si>
+  <si>
+    <t>08-20222022-08-S4--6532474811788094511</t>
+  </si>
+  <si>
+    <t>08-20222022-07-S4--6532474811788094511</t>
+  </si>
+  <si>
+    <t>08-20222022-06-S4--6532474811788094511</t>
+  </si>
+  <si>
+    <t>08-20222022-05-S4--6532474811788094511</t>
+  </si>
+  <si>
+    <t>08-20222022-04-S4--6532474811788094511</t>
+  </si>
+  <si>
+    <t>08-20222022-03-S4--6532474811788094511</t>
+  </si>
+  <si>
+    <t>08-20222022-02-S4--6532474811788094511</t>
+  </si>
+  <si>
+    <t>08-20222022-01-S4--6532474811788094511</t>
+  </si>
+  <si>
+    <t>08-20222021-12-S4--6532474811788094511</t>
+  </si>
+  <si>
+    <t>08-20222021-11-S4--6532474811788094511</t>
+  </si>
+  <si>
+    <t>08-20222021-10-S4--6532474811788094511</t>
+  </si>
+  <si>
+    <t>08-20222021-09-S4--6532474811788094511</t>
+  </si>
+  <si>
+    <t>08-20222022-08-S4-4264708155326822310</t>
+  </si>
+  <si>
+    <t>08-20222022-07-S4-4264708155326822310</t>
+  </si>
+  <si>
+    <t>08-20222022-06-S4-4264708155326822310</t>
+  </si>
+  <si>
+    <t>08-20222022-05-S4-4264708155326822310</t>
+  </si>
+  <si>
+    <t>08-20222022-04-S4-4264708155326822310</t>
+  </si>
+  <si>
+    <t>08-20222022-03-S4-4264708155326822310</t>
+  </si>
+  <si>
+    <t>08-20222022-02-S4-4264708155326822310</t>
+  </si>
+  <si>
+    <t>08-20222022-01-S4-4264708155326822310</t>
+  </si>
+  <si>
+    <t>08-20222021-12-S4-4264708155326822310</t>
+  </si>
+  <si>
+    <t>08-20222021-11-S4-4264708155326822310</t>
+  </si>
+  <si>
+    <t>08-20222021-10-S4-4264708155326822310</t>
+  </si>
+  <si>
+    <t>08-20222021-09-S4-4264708155326822310</t>
+  </si>
+  <si>
+    <t>08-20222022-08-S4--2057006955909231602</t>
+  </si>
+  <si>
+    <t>08-20222022-07-S4--2057006955909231602</t>
+  </si>
+  <si>
+    <t>08-20222022-06-S4--2057006955909231602</t>
+  </si>
+  <si>
+    <t>08-20222022-05-S4--2057006955909231602</t>
+  </si>
+  <si>
+    <t>08-20222022-04-S4--2057006955909231602</t>
+  </si>
+  <si>
+    <t>08-20222022-03-S4--2057006955909231602</t>
+  </si>
+  <si>
+    <t>08-20222022-02-S4--2057006955909231602</t>
+  </si>
+  <si>
+    <t>08-20222022-01-S4--2057006955909231602</t>
+  </si>
+  <si>
+    <t>08-20222021-12-S4--2057006955909231602</t>
+  </si>
+  <si>
+    <t>08-20222021-11-S4--2057006955909231602</t>
+  </si>
+  <si>
+    <t>08-20222021-10-S4--2057006955909231602</t>
+  </si>
+  <si>
+    <t>08-20222021-09-S4--2057006955909231602</t>
+  </si>
+  <si>
+    <t>08-20222022-08-S4--3453612496330874573</t>
+  </si>
+  <si>
+    <t>08-20222022-07-S4--3453612496330874573</t>
+  </si>
+  <si>
+    <t>08-20222022-06-S4--3453612496330874573</t>
+  </si>
+  <si>
+    <t>08-20222022-05-S4--3453612496330874573</t>
+  </si>
+  <si>
+    <t>08-20222022-04-S4--3453612496330874573</t>
+  </si>
+  <si>
+    <t>08-20222022-03-S4--3453612496330874573</t>
+  </si>
+  <si>
+    <t>08-20222022-02-S4--3453612496330874573</t>
+  </si>
+  <si>
+    <t>08-20222022-01-S4--3453612496330874573</t>
+  </si>
+  <si>
+    <t>08-20222021-12-S4--3453612496330874573</t>
+  </si>
+  <si>
+    <t>08-20222021-11-S4--3453612496330874573</t>
+  </si>
+  <si>
+    <t>08-20222021-10-S4--3453612496330874573</t>
+  </si>
+  <si>
+    <t>08-20222021-09-S4--3453612496330874573</t>
+  </si>
+  <si>
+    <t>08-20222022-08-S4--2367861958238345864</t>
+  </si>
+  <si>
+    <t>08-20222022-07-S4--2367861958238345864</t>
+  </si>
+  <si>
+    <t>08-20222022-06-S4--2367861958238345864</t>
+  </si>
+  <si>
+    <t>08-20222022-05-S4--2367861958238345864</t>
+  </si>
+  <si>
+    <t>08-20222022-04-S4--2367861958238345864</t>
+  </si>
+  <si>
+    <t>08-20222022-03-S4--2367861958238345864</t>
+  </si>
+  <si>
+    <t>08-20222022-02-S4--2367861958238345864</t>
+  </si>
+  <si>
+    <t>08-20222022-01-S4--2367861958238345864</t>
+  </si>
+  <si>
+    <t>08-20222021-12-S4--2367861958238345864</t>
+  </si>
+  <si>
+    <t>08-20222021-11-S4--2367861958238345864</t>
+  </si>
+  <si>
+    <t>08-20222021-10-S4--2367861958238345864</t>
+  </si>
+  <si>
+    <t>08-20222021-09-S4--2367861958238345864</t>
+  </si>
+  <si>
+    <t>08-20222022-08-S4--7462642736155579423</t>
+  </si>
+  <si>
+    <t>08-20222022-07-S4--7462642736155579423</t>
+  </si>
+  <si>
+    <t>08-20222022-06-S4--7462642736155579423</t>
+  </si>
+  <si>
+    <t>08-20222022-05-S4--7462642736155579423</t>
+  </si>
+  <si>
+    <t>08-20222022-04-S4--7462642736155579423</t>
+  </si>
+  <si>
+    <t>08-20222022-03-S4--7462642736155579423</t>
   </si>
   <si>
     <t>biac_kpi502</t>

--- a/sources/tablesKeys.xlsx
+++ b/sources/tablesKeys.xlsx
@@ -43,7 +43,13 @@
     <t>key</t>
   </si>
   <si>
-    <t>08-2022</t>
+    <t>10-2022</t>
+  </si>
+  <si>
+    <t>2022-10</t>
+  </si>
+  <si>
+    <t>2022-09</t>
   </si>
   <si>
     <t>2022-08</t>
@@ -76,370 +82,367 @@
     <t>2021-11</t>
   </si>
   <si>
-    <t>2021-10</t>
-  </si>
-  <si>
-    <t>2021-09</t>
-  </si>
-  <si>
-    <t>08-20222022-08-S4-7330812168440384896</t>
-  </si>
-  <si>
-    <t>08-20222022-07-S4-7330812168440384896</t>
-  </si>
-  <si>
-    <t>08-20222022-06-S4-7330812168440384896</t>
-  </si>
-  <si>
-    <t>08-20222022-05-S4-7330812168440384896</t>
-  </si>
-  <si>
-    <t>08-20222022-04-S4-7330812168440384896</t>
-  </si>
-  <si>
-    <t>08-20222022-03-S4-7330812168440384896</t>
-  </si>
-  <si>
-    <t>08-20222022-02-S4-7330812168440384896</t>
-  </si>
-  <si>
-    <t>08-20222022-01-S4-7330812168440384896</t>
-  </si>
-  <si>
-    <t>08-20222021-12-S4-7330812168440384896</t>
-  </si>
-  <si>
-    <t>08-20222021-11-S4-7330812168440384896</t>
-  </si>
-  <si>
-    <t>08-20222021-10-S4-7330812168440384896</t>
-  </si>
-  <si>
-    <t>08-20222021-09-S4-7330812168440384896</t>
-  </si>
-  <si>
-    <t>08-20222022-08-S4-4154347881861881147</t>
-  </si>
-  <si>
-    <t>08-20222022-07-S4-4154347881861881147</t>
-  </si>
-  <si>
-    <t>08-20222022-06-S4-4154347881861881147</t>
-  </si>
-  <si>
-    <t>08-20222022-05-S4-4154347881861881147</t>
-  </si>
-  <si>
-    <t>08-20222022-04-S4-4154347881861881147</t>
-  </si>
-  <si>
-    <t>08-20222022-03-S4-4154347881861881147</t>
-  </si>
-  <si>
-    <t>08-20222022-02-S4-4154347881861881147</t>
-  </si>
-  <si>
-    <t>08-20222022-01-S4-4154347881861881147</t>
-  </si>
-  <si>
-    <t>08-20222021-12-S4-4154347881861881147</t>
-  </si>
-  <si>
-    <t>08-20222021-11-S4-4154347881861881147</t>
-  </si>
-  <si>
-    <t>08-20222021-10-S4-4154347881861881147</t>
-  </si>
-  <si>
-    <t>08-20222021-09-S4-4154347881861881147</t>
-  </si>
-  <si>
-    <t>08-20222022-08-S4-5053867866719793570</t>
-  </si>
-  <si>
-    <t>08-20222022-07-S4-5053867866719793570</t>
-  </si>
-  <si>
-    <t>08-20222022-06-S4-5053867866719793570</t>
-  </si>
-  <si>
-    <t>08-20222022-05-S4-5053867866719793570</t>
-  </si>
-  <si>
-    <t>08-20222022-04-S4-5053867866719793570</t>
-  </si>
-  <si>
-    <t>08-20222022-03-S4-5053867866719793570</t>
-  </si>
-  <si>
-    <t>08-20222022-02-S4-5053867866719793570</t>
-  </si>
-  <si>
-    <t>08-20222022-01-S4-5053867866719793570</t>
-  </si>
-  <si>
-    <t>08-20222021-12-S4-5053867866719793570</t>
-  </si>
-  <si>
-    <t>08-20222021-11-S4-5053867866719793570</t>
-  </si>
-  <si>
-    <t>08-20222021-10-S4-5053867866719793570</t>
-  </si>
-  <si>
-    <t>08-20222021-09-S4-5053867866719793570</t>
-  </si>
-  <si>
-    <t>08-20222022-08-S4-1126062346673995035</t>
-  </si>
-  <si>
-    <t>08-20222022-07-S4-1126062346673995035</t>
-  </si>
-  <si>
-    <t>08-20222022-06-S4-1126062346673995035</t>
-  </si>
-  <si>
-    <t>08-20222022-05-S4-1126062346673995035</t>
-  </si>
-  <si>
-    <t>08-20222022-04-S4-1126062346673995035</t>
-  </si>
-  <si>
-    <t>08-20222022-03-S4-1126062346673995035</t>
-  </si>
-  <si>
-    <t>08-20222022-02-S4-1126062346673995035</t>
-  </si>
-  <si>
-    <t>08-20222022-01-S4-1126062346673995035</t>
-  </si>
-  <si>
-    <t>08-20222021-12-S4-1126062346673995035</t>
-  </si>
-  <si>
-    <t>08-20222021-11-S4-1126062346673995035</t>
-  </si>
-  <si>
-    <t>08-20222021-10-S4-1126062346673995035</t>
-  </si>
-  <si>
-    <t>08-20222021-09-S4-1126062346673995035</t>
-  </si>
-  <si>
-    <t>08-20222022-08-S4--6532474811788094511</t>
-  </si>
-  <si>
-    <t>08-20222022-07-S4--6532474811788094511</t>
-  </si>
-  <si>
-    <t>08-20222022-06-S4--6532474811788094511</t>
-  </si>
-  <si>
-    <t>08-20222022-05-S4--6532474811788094511</t>
-  </si>
-  <si>
-    <t>08-20222022-04-S4--6532474811788094511</t>
-  </si>
-  <si>
-    <t>08-20222022-03-S4--6532474811788094511</t>
-  </si>
-  <si>
-    <t>08-20222022-02-S4--6532474811788094511</t>
-  </si>
-  <si>
-    <t>08-20222022-01-S4--6532474811788094511</t>
-  </si>
-  <si>
-    <t>08-20222021-12-S4--6532474811788094511</t>
-  </si>
-  <si>
-    <t>08-20222021-11-S4--6532474811788094511</t>
-  </si>
-  <si>
-    <t>08-20222021-10-S4--6532474811788094511</t>
-  </si>
-  <si>
-    <t>08-20222021-09-S4--6532474811788094511</t>
-  </si>
-  <si>
-    <t>08-20222022-08-S4-4264708155326822310</t>
-  </si>
-  <si>
-    <t>08-20222022-07-S4-4264708155326822310</t>
-  </si>
-  <si>
-    <t>08-20222022-06-S4-4264708155326822310</t>
-  </si>
-  <si>
-    <t>08-20222022-05-S4-4264708155326822310</t>
-  </si>
-  <si>
-    <t>08-20222022-04-S4-4264708155326822310</t>
-  </si>
-  <si>
-    <t>08-20222022-03-S4-4264708155326822310</t>
-  </si>
-  <si>
-    <t>08-20222022-02-S4-4264708155326822310</t>
-  </si>
-  <si>
-    <t>08-20222022-01-S4-4264708155326822310</t>
-  </si>
-  <si>
-    <t>08-20222021-12-S4-4264708155326822310</t>
-  </si>
-  <si>
-    <t>08-20222021-11-S4-4264708155326822310</t>
-  </si>
-  <si>
-    <t>08-20222021-10-S4-4264708155326822310</t>
-  </si>
-  <si>
-    <t>08-20222021-09-S4-4264708155326822310</t>
-  </si>
-  <si>
-    <t>08-20222022-08-S4--2057006955909231602</t>
-  </si>
-  <si>
-    <t>08-20222022-07-S4--2057006955909231602</t>
-  </si>
-  <si>
-    <t>08-20222022-06-S4--2057006955909231602</t>
-  </si>
-  <si>
-    <t>08-20222022-05-S4--2057006955909231602</t>
-  </si>
-  <si>
-    <t>08-20222022-04-S4--2057006955909231602</t>
-  </si>
-  <si>
-    <t>08-20222022-03-S4--2057006955909231602</t>
-  </si>
-  <si>
-    <t>08-20222022-02-S4--2057006955909231602</t>
-  </si>
-  <si>
-    <t>08-20222022-01-S4--2057006955909231602</t>
-  </si>
-  <si>
-    <t>08-20222021-12-S4--2057006955909231602</t>
-  </si>
-  <si>
-    <t>08-20222021-11-S4--2057006955909231602</t>
-  </si>
-  <si>
-    <t>08-20222021-10-S4--2057006955909231602</t>
-  </si>
-  <si>
-    <t>08-20222021-09-S4--2057006955909231602</t>
-  </si>
-  <si>
-    <t>08-20222022-08-S4--3453612496330874573</t>
-  </si>
-  <si>
-    <t>08-20222022-07-S4--3453612496330874573</t>
-  </si>
-  <si>
-    <t>08-20222022-06-S4--3453612496330874573</t>
-  </si>
-  <si>
-    <t>08-20222022-05-S4--3453612496330874573</t>
-  </si>
-  <si>
-    <t>08-20222022-04-S4--3453612496330874573</t>
-  </si>
-  <si>
-    <t>08-20222022-03-S4--3453612496330874573</t>
-  </si>
-  <si>
-    <t>08-20222022-02-S4--3453612496330874573</t>
-  </si>
-  <si>
-    <t>08-20222022-01-S4--3453612496330874573</t>
-  </si>
-  <si>
-    <t>08-20222021-12-S4--3453612496330874573</t>
-  </si>
-  <si>
-    <t>08-20222021-11-S4--3453612496330874573</t>
-  </si>
-  <si>
-    <t>08-20222021-10-S4--3453612496330874573</t>
-  </si>
-  <si>
-    <t>08-20222021-09-S4--3453612496330874573</t>
-  </si>
-  <si>
-    <t>08-20222022-08-S4--2367861958238345864</t>
-  </si>
-  <si>
-    <t>08-20222022-07-S4--2367861958238345864</t>
-  </si>
-  <si>
-    <t>08-20222022-06-S4--2367861958238345864</t>
-  </si>
-  <si>
-    <t>08-20222022-05-S4--2367861958238345864</t>
-  </si>
-  <si>
-    <t>08-20222022-04-S4--2367861958238345864</t>
-  </si>
-  <si>
-    <t>08-20222022-03-S4--2367861958238345864</t>
-  </si>
-  <si>
-    <t>08-20222022-02-S4--2367861958238345864</t>
-  </si>
-  <si>
-    <t>08-20222022-01-S4--2367861958238345864</t>
-  </si>
-  <si>
-    <t>08-20222021-12-S4--2367861958238345864</t>
-  </si>
-  <si>
-    <t>08-20222021-11-S4--2367861958238345864</t>
-  </si>
-  <si>
-    <t>08-20222021-10-S4--2367861958238345864</t>
-  </si>
-  <si>
-    <t>08-20222021-09-S4--2367861958238345864</t>
-  </si>
-  <si>
-    <t>08-20222022-08-S4--7462642736155579423</t>
-  </si>
-  <si>
-    <t>08-20222022-07-S4--7462642736155579423</t>
-  </si>
-  <si>
-    <t>08-20222022-06-S4--7462642736155579423</t>
-  </si>
-  <si>
-    <t>08-20222022-05-S4--7462642736155579423</t>
-  </si>
-  <si>
-    <t>08-20222022-04-S4--7462642736155579423</t>
-  </si>
-  <si>
-    <t>08-20222022-03-S4--7462642736155579423</t>
+    <t>10-20222022-10-S4-7035276923545016707</t>
+  </si>
+  <si>
+    <t>10-20222022-09-S4-7035276923545016707</t>
+  </si>
+  <si>
+    <t>10-20222022-08-S4-7035276923545016707</t>
+  </si>
+  <si>
+    <t>10-20222022-07-S4-7035276923545016707</t>
+  </si>
+  <si>
+    <t>10-20222022-06-S4-7035276923545016707</t>
+  </si>
+  <si>
+    <t>10-20222022-05-S4-7035276923545016707</t>
+  </si>
+  <si>
+    <t>10-20222022-04-S4-7035276923545016707</t>
+  </si>
+  <si>
+    <t>10-20222022-03-S4-7035276923545016707</t>
+  </si>
+  <si>
+    <t>10-20222022-02-S4-7035276923545016707</t>
+  </si>
+  <si>
+    <t>10-20222022-01-S4-7035276923545016707</t>
+  </si>
+  <si>
+    <t>10-20222021-12-S4-7035276923545016707</t>
+  </si>
+  <si>
+    <t>10-20222021-11-S4-7035276923545016707</t>
+  </si>
+  <si>
+    <t>10-20222022-10-S4--7403345194998089759</t>
+  </si>
+  <si>
+    <t>10-20222022-09-S4--7403345194998089759</t>
+  </si>
+  <si>
+    <t>10-20222022-08-S4--7403345194998089759</t>
+  </si>
+  <si>
+    <t>10-20222022-07-S4--7403345194998089759</t>
+  </si>
+  <si>
+    <t>10-20222022-06-S4--7403345194998089759</t>
+  </si>
+  <si>
+    <t>10-20222022-05-S4--7403345194998089759</t>
+  </si>
+  <si>
+    <t>10-20222022-04-S4--7403345194998089759</t>
+  </si>
+  <si>
+    <t>10-20222022-03-S4--7403345194998089759</t>
+  </si>
+  <si>
+    <t>10-20222022-02-S4--7403345194998089759</t>
+  </si>
+  <si>
+    <t>10-20222022-01-S4--7403345194998089759</t>
+  </si>
+  <si>
+    <t>10-20222021-12-S4--7403345194998089759</t>
+  </si>
+  <si>
+    <t>10-20222021-11-S4--7403345194998089759</t>
+  </si>
+  <si>
+    <t>10-20222022-10-S4--212381794453921472</t>
+  </si>
+  <si>
+    <t>10-20222022-09-S4--212381794453921472</t>
+  </si>
+  <si>
+    <t>10-20222022-08-S4--212381794453921472</t>
+  </si>
+  <si>
+    <t>10-20222022-07-S4--212381794453921472</t>
+  </si>
+  <si>
+    <t>10-20222022-06-S4--212381794453921472</t>
+  </si>
+  <si>
+    <t>10-20222022-05-S4--212381794453921472</t>
+  </si>
+  <si>
+    <t>10-20222022-04-S4--212381794453921472</t>
+  </si>
+  <si>
+    <t>10-20222022-03-S4--212381794453921472</t>
+  </si>
+  <si>
+    <t>10-20222022-02-S4--212381794453921472</t>
+  </si>
+  <si>
+    <t>10-20222022-01-S4--212381794453921472</t>
+  </si>
+  <si>
+    <t>10-20222021-12-S4--212381794453921472</t>
+  </si>
+  <si>
+    <t>10-20222021-11-S4--212381794453921472</t>
+  </si>
+  <si>
+    <t>10-20222022-10-S4-1676963588244789481</t>
+  </si>
+  <si>
+    <t>10-20222022-09-S4-1676963588244789481</t>
+  </si>
+  <si>
+    <t>10-20222022-08-S4-1676963588244789481</t>
+  </si>
+  <si>
+    <t>10-20222022-07-S4-1676963588244789481</t>
+  </si>
+  <si>
+    <t>10-20222022-06-S4-1676963588244789481</t>
+  </si>
+  <si>
+    <t>10-20222022-05-S4-1676963588244789481</t>
+  </si>
+  <si>
+    <t>10-20222022-04-S4-1676963588244789481</t>
+  </si>
+  <si>
+    <t>10-20222022-03-S4-1676963588244789481</t>
+  </si>
+  <si>
+    <t>10-20222022-02-S4-1676963588244789481</t>
+  </si>
+  <si>
+    <t>10-20222022-01-S4-1676963588244789481</t>
+  </si>
+  <si>
+    <t>10-20222021-12-S4-1676963588244789481</t>
+  </si>
+  <si>
+    <t>10-20222021-11-S4-1676963588244789481</t>
+  </si>
+  <si>
+    <t>10-20222022-10-S4-2496690508182934861</t>
+  </si>
+  <si>
+    <t>10-20222022-09-S4-2496690508182934861</t>
+  </si>
+  <si>
+    <t>10-20222022-08-S4-2496690508182934861</t>
+  </si>
+  <si>
+    <t>10-20222022-07-S4-2496690508182934861</t>
+  </si>
+  <si>
+    <t>10-20222022-06-S4-2496690508182934861</t>
+  </si>
+  <si>
+    <t>10-20222022-05-S4-2496690508182934861</t>
+  </si>
+  <si>
+    <t>10-20222022-04-S4-2496690508182934861</t>
+  </si>
+  <si>
+    <t>10-20222022-03-S4-2496690508182934861</t>
+  </si>
+  <si>
+    <t>10-20222022-02-S4-2496690508182934861</t>
+  </si>
+  <si>
+    <t>10-20222022-01-S4-2496690508182934861</t>
+  </si>
+  <si>
+    <t>10-20222021-12-S4-2496690508182934861</t>
+  </si>
+  <si>
+    <t>10-20222021-11-S4-2496690508182934861</t>
+  </si>
+  <si>
+    <t>10-20222022-10-S4--5403479880678752392</t>
+  </si>
+  <si>
+    <t>10-20222022-09-S4--5403479880678752392</t>
+  </si>
+  <si>
+    <t>10-20222022-08-S4--5403479880678752392</t>
+  </si>
+  <si>
+    <t>10-20222022-07-S4--5403479880678752392</t>
+  </si>
+  <si>
+    <t>10-20222022-06-S4--5403479880678752392</t>
+  </si>
+  <si>
+    <t>10-20222022-05-S4--5403479880678752392</t>
+  </si>
+  <si>
+    <t>10-20222022-04-S4--5403479880678752392</t>
+  </si>
+  <si>
+    <t>10-20222022-03-S4--5403479880678752392</t>
+  </si>
+  <si>
+    <t>10-20222022-02-S4--5403479880678752392</t>
+  </si>
+  <si>
+    <t>10-20222022-01-S4--5403479880678752392</t>
+  </si>
+  <si>
+    <t>10-20222021-12-S4--5403479880678752392</t>
+  </si>
+  <si>
+    <t>10-20222021-11-S4--5403479880678752392</t>
+  </si>
+  <si>
+    <t>10-20222022-10-S4--2843825515785769739</t>
+  </si>
+  <si>
+    <t>10-20222022-09-S4--2843825515785769739</t>
+  </si>
+  <si>
+    <t>10-20222022-08-S4--2843825515785769739</t>
+  </si>
+  <si>
+    <t>10-20222022-07-S4--2843825515785769739</t>
+  </si>
+  <si>
+    <t>10-20222022-06-S4--2843825515785769739</t>
+  </si>
+  <si>
+    <t>10-20222022-05-S4--2843825515785769739</t>
+  </si>
+  <si>
+    <t>10-20222022-04-S4--2843825515785769739</t>
+  </si>
+  <si>
+    <t>10-20222022-03-S4--2843825515785769739</t>
+  </si>
+  <si>
+    <t>10-20222022-02-S4--2843825515785769739</t>
+  </si>
+  <si>
+    <t>10-20222022-01-S4--2843825515785769739</t>
+  </si>
+  <si>
+    <t>10-20222021-12-S4--2843825515785769739</t>
+  </si>
+  <si>
+    <t>10-20222021-11-S4--2843825515785769739</t>
+  </si>
+  <si>
+    <t>10-20222022-10-S4--6696846982537681100</t>
+  </si>
+  <si>
+    <t>10-20222022-09-S4--6696846982537681100</t>
+  </si>
+  <si>
+    <t>10-20222022-08-S4--6696846982537681100</t>
+  </si>
+  <si>
+    <t>10-20222022-07-S4--6696846982537681100</t>
+  </si>
+  <si>
+    <t>10-20222022-06-S4--6696846982537681100</t>
+  </si>
+  <si>
+    <t>10-20222022-05-S4--6696846982537681100</t>
+  </si>
+  <si>
+    <t>10-20222022-04-S4--6696846982537681100</t>
+  </si>
+  <si>
+    <t>10-20222022-03-S4--6696846982537681100</t>
+  </si>
+  <si>
+    <t>10-20222022-02-S4--6696846982537681100</t>
+  </si>
+  <si>
+    <t>10-20222022-01-S4--6696846982537681100</t>
+  </si>
+  <si>
+    <t>10-20222021-12-S4--6696846982537681100</t>
+  </si>
+  <si>
+    <t>10-20222021-11-S4--6696846982537681100</t>
+  </si>
+  <si>
+    <t>10-20222022-10-S4--4973370325086707357</t>
+  </si>
+  <si>
+    <t>10-20222022-09-S4--4973370325086707357</t>
+  </si>
+  <si>
+    <t>10-20222022-08-S4--4973370325086707357</t>
+  </si>
+  <si>
+    <t>10-20222022-07-S4--4973370325086707357</t>
+  </si>
+  <si>
+    <t>10-20222022-06-S4--4973370325086707357</t>
+  </si>
+  <si>
+    <t>10-20222022-05-S4--4973370325086707357</t>
+  </si>
+  <si>
+    <t>10-20222022-04-S4--4973370325086707357</t>
+  </si>
+  <si>
+    <t>10-20222022-03-S4--4973370325086707357</t>
+  </si>
+  <si>
+    <t>10-20222022-02-S4--4973370325086707357</t>
+  </si>
+  <si>
+    <t>10-20222022-01-S4--4973370325086707357</t>
+  </si>
+  <si>
+    <t>10-20222021-12-S4--4973370325086707357</t>
+  </si>
+  <si>
+    <t>10-20222021-11-S4--4973370325086707357</t>
+  </si>
+  <si>
+    <t>10-20222022-10-S4-8661874126815085541</t>
+  </si>
+  <si>
+    <t>10-20222022-09-S4-8661874126815085541</t>
+  </si>
+  <si>
+    <t>10-20222022-08-S4-8661874126815085541</t>
+  </si>
+  <si>
+    <t>10-20222022-07-S4-8661874126815085541</t>
+  </si>
+  <si>
+    <t>10-20222022-06-S4-8661874126815085541</t>
+  </si>
+  <si>
+    <t>10-20222022-05-S4-8661874126815085541</t>
   </si>
   <si>
     <t>biac_kpi502</t>
   </si>
   <si>
-    <t>2022-09</t>
+    <t>2022-11</t>
   </si>
   <si>
     <t>Lot1 (BACHEA)</t>
   </si>
   <si>
+    <t>Lot2 HVAC PB/NT (BACHVA)</t>
+  </si>
+  <si>
     <t>Lot2 FIRE (BACFIR)</t>
   </si>
   <si>
     <t>Lot2 ELEC (BACELE)</t>
   </si>
   <si>
-    <t>Lot2 HVAC PB/NT (BACHVA)</t>
+    <t>Lot2 CRADLE (BACFIR)</t>
   </si>
   <si>
     <t>Lot2 HVAC PA (BACSAN)</t>
@@ -449,9 +452,6 @@
   </si>
   <si>
     <t>Lot2 ACCESS (BACFIR)</t>
-  </si>
-  <si>
-    <t>Lot2 CRADLE (BACFIR)</t>
   </si>
   <si>
     <t>Lot3 (BACEXT)</t>

--- a/sources/tablesKeys.xlsx
+++ b/sources/tablesKeys.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,12 +486,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -505,7 +505,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>04-20232023-04-S4-6228177959813301752</t>
+          <t>05-20242024-05-S4--5423527770172096280</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -530,12 +530,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -549,7 +549,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>04-20232023-03-S4-6228177959813301752</t>
+          <t>05-20242024-04-S4--5423527770172096280</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -574,12 +574,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -593,7 +593,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>04-20232023-02-S4-6228177959813301752</t>
+          <t>05-20242024-03-S4--5423527770172096280</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -618,12 +618,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -637,7 +637,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>04-20232023-01-S4-6228177959813301752</t>
+          <t>05-20242024-02-S4--5423527770172096280</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -681,7 +681,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>04-20232022-12-S4-6228177959813301752</t>
+          <t>05-20242024-01-S4--5423527770172096280</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -706,12 +706,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -725,7 +725,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>04-20232022-11-S4-6228177959813301752</t>
+          <t>05-20242023-12-S4--5423527770172096280</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -750,12 +750,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -769,7 +769,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>04-20232022-10-S4-6228177959813301752</t>
+          <t>05-20242023-11-S4--5423527770172096280</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -794,12 +794,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -813,7 +813,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>04-20232022-09-S4-6228177959813301752</t>
+          <t>05-20242023-10-S4--5423527770172096280</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -838,12 +838,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -857,7 +857,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>04-20232022-08-S4-6228177959813301752</t>
+          <t>05-20242023-09-S4--5423527770172096280</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -882,12 +882,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2022-07</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -901,7 +901,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>04-20232022-07-S4-6228177959813301752</t>
+          <t>05-20242023-08-S4--5423527770172096280</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -926,12 +926,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -945,7 +945,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>04-20232022-06-S4-6228177959813301752</t>
+          <t>05-20242023-07-S4--5423527770172096280</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -970,12 +970,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -989,7 +989,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>04-20232022-05-S4-6228177959813301752</t>
+          <t>05-20242023-06-S4--5423527770172096280</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1014,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>04-20232023-04-S4--2193803952677042805</t>
+          <t>05-20242024-05-S4-8587637118461861098</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -1058,12 +1058,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>04-20232023-03-S4--2193803952677042805</t>
+          <t>05-20242024-04-S4-8587637118461861098</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -1102,12 +1102,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>04-20232023-02-S4--2193803952677042805</t>
+          <t>05-20242024-03-S4-8587637118461861098</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -1146,12 +1146,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>04-20232023-01-S4--2193803952677042805</t>
+          <t>05-20242024-02-S4-8587637118461861098</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -1190,12 +1190,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>04-20232022-12-S4--2193803952677042805</t>
+          <t>05-20242024-01-S4-8587637118461861098</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -1234,12 +1234,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>04-20232022-11-S4--2193803952677042805</t>
+          <t>05-20242023-12-S4-8587637118461861098</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -1278,12 +1278,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>04-20232022-10-S4--2193803952677042805</t>
+          <t>05-20242023-11-S4-8587637118461861098</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -1322,12 +1322,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>04-20232022-09-S4--2193803952677042805</t>
+          <t>05-20242023-10-S4-8587637118461861098</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -1366,12 +1366,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>04-20232022-08-S4--2193803952677042805</t>
+          <t>05-20242023-09-S4-8587637118461861098</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2022-07</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>04-20232022-07-S4--2193803952677042805</t>
+          <t>05-20242023-08-S4-8587637118461861098</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -1454,12 +1454,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>04-20232022-06-S4--2193803952677042805</t>
+          <t>05-20242023-07-S4-8587637118461861098</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -1498,12 +1498,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>04-20232022-05-S4--2193803952677042805</t>
+          <t>05-20242023-06-S4-8587637118461861098</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -1542,12 +1542,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>04-20232023-04-S4-4941993429014109941</t>
+          <t>05-20242024-05-S4--6490513566733144608</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1571,12 +1571,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Lot2 FIRE (BACFIR)</t>
+          <t>Lot2 ELEC (BACELE)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -1586,12 +1586,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>04-20232023-03-S4-4941993429014109941</t>
+          <t>05-20242024-04-S4--6490513566733144608</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1615,12 +1615,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Lot2 FIRE (BACFIR)</t>
+          <t>Lot2 ELEC (BACELE)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -1630,12 +1630,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>04-20232023-02-S4-4941993429014109941</t>
+          <t>05-20242024-03-S4--6490513566733144608</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1659,12 +1659,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Lot2 FIRE (BACFIR)</t>
+          <t>Lot2 ELEC (BACELE)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -1674,12 +1674,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>04-20232023-01-S4-4941993429014109941</t>
+          <t>05-20242024-02-S4--6490513566733144608</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1703,12 +1703,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Lot2 FIRE (BACFIR)</t>
+          <t>Lot2 ELEC (BACELE)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -1718,12 +1718,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>04-20232022-12-S4-4941993429014109941</t>
+          <t>05-20242024-01-S4--6490513566733144608</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1747,12 +1747,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Lot2 FIRE (BACFIR)</t>
+          <t>Lot2 ELEC (BACELE)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -1762,12 +1762,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>04-20232022-11-S4-4941993429014109941</t>
+          <t>05-20242023-12-S4--6490513566733144608</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Lot2 FIRE (BACFIR)</t>
+          <t>Lot2 ELEC (BACELE)</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -1806,12 +1806,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>04-20232022-10-S4-4941993429014109941</t>
+          <t>05-20242023-11-S4--6490513566733144608</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1835,12 +1835,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Lot2 FIRE (BACFIR)</t>
+          <t>Lot2 ELEC (BACELE)</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -1850,12 +1850,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>04-20232022-09-S4-4941993429014109941</t>
+          <t>05-20242023-10-S4--6490513566733144608</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1879,12 +1879,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Lot2 FIRE (BACFIR)</t>
+          <t>Lot2 ELEC (BACELE)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -1894,12 +1894,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>04-20232022-08-S4-4941993429014109941</t>
+          <t>05-20242023-09-S4--6490513566733144608</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1923,12 +1923,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Lot2 FIRE (BACFIR)</t>
+          <t>Lot2 ELEC (BACELE)</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -1938,12 +1938,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2022-07</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>04-20232022-07-S4-4941993429014109941</t>
+          <t>05-20242023-08-S4--6490513566733144608</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1967,12 +1967,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Lot2 FIRE (BACFIR)</t>
+          <t>Lot2 ELEC (BACELE)</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -1982,12 +1982,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>04-20232022-06-S4-4941993429014109941</t>
+          <t>05-20242023-07-S4--6490513566733144608</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Lot2 FIRE (BACFIR)</t>
+          <t>Lot2 ELEC (BACELE)</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -2026,12 +2026,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>04-20232022-05-S4-4941993429014109941</t>
+          <t>05-20242023-06-S4--6490513566733144608</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2055,12 +2055,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Lot2 FIRE (BACFIR)</t>
+          <t>Lot2 ELEC (BACELE)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -2070,12 +2070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>04-20232023-04-S4-6790112991800490958</t>
+          <t>05-20242024-05-S4-2980721747111294567</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2099,12 +2099,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Lot2 ELEC (BACELE)</t>
+          <t>Lot2 FIRE (BACFIR)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -2114,12 +2114,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>04-20232023-03-S4-6790112991800490958</t>
+          <t>05-20242024-04-S4-2980721747111294567</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Lot2 ELEC (BACELE)</t>
+          <t>Lot2 FIRE (BACFIR)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>04-20232023-02-S4-6790112991800490958</t>
+          <t>05-20242024-03-S4-2980721747111294567</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2187,12 +2187,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Lot2 ELEC (BACELE)</t>
+          <t>Lot2 FIRE (BACFIR)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -2202,12 +2202,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>04-20232023-01-S4-6790112991800490958</t>
+          <t>05-20242024-02-S4-2980721747111294567</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2231,12 +2231,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Lot2 ELEC (BACELE)</t>
+          <t>Lot2 FIRE (BACFIR)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -2246,12 +2246,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>04-20232022-12-S4-6790112991800490958</t>
+          <t>05-20242024-01-S4-2980721747111294567</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2275,12 +2275,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Lot2 ELEC (BACELE)</t>
+          <t>Lot2 FIRE (BACFIR)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -2290,12 +2290,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>04-20232022-11-S4-6790112991800490958</t>
+          <t>05-20242023-12-S4-2980721747111294567</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2319,12 +2319,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Lot2 ELEC (BACELE)</t>
+          <t>Lot2 FIRE (BACFIR)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -2334,12 +2334,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>04-20232022-10-S4-6790112991800490958</t>
+          <t>05-20242023-11-S4-2980721747111294567</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2363,12 +2363,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Lot2 ELEC (BACELE)</t>
+          <t>Lot2 FIRE (BACFIR)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -2378,12 +2378,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>04-20232022-09-S4-6790112991800490958</t>
+          <t>05-20242023-10-S4-2980721747111294567</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2407,12 +2407,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Lot2 ELEC (BACELE)</t>
+          <t>Lot2 FIRE (BACFIR)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -2422,12 +2422,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>04-20232022-08-S4-6790112991800490958</t>
+          <t>05-20242023-09-S4-2980721747111294567</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2451,12 +2451,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Lot2 ELEC (BACELE)</t>
+          <t>Lot2 FIRE (BACFIR)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -2466,12 +2466,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2022-07</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>04-20232022-07-S4-6790112991800490958</t>
+          <t>05-20242023-08-S4-2980721747111294567</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2495,12 +2495,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Lot2 ELEC (BACELE)</t>
+          <t>Lot2 FIRE (BACFIR)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -2510,12 +2510,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>04-20232022-06-S4-6790112991800490958</t>
+          <t>05-20242023-07-S4-2980721747111294567</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2539,12 +2539,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Lot2 ELEC (BACELE)</t>
+          <t>Lot2 FIRE (BACFIR)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -2554,12 +2554,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>04-20232022-05-S4-6790112991800490958</t>
+          <t>05-20242023-06-S4-2980721747111294567</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2583,12 +2583,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Lot2 ELEC (BACELE)</t>
+          <t>Lot2 FIRE (BACFIR)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -2598,12 +2598,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>04-20232023-04-S4-594446333198410117</t>
+          <t>05-20242024-05-S4--5103159334390443550</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2627,12 +2627,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Lot2 HVAC PA (BACSAN)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -2642,12 +2642,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>04-20232023-03-S4-594446333198410117</t>
+          <t>05-20242024-04-S4--5103159334390443550</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2671,12 +2671,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Lot2 HVAC PA (BACSAN)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -2686,12 +2686,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>04-20232023-02-S4-594446333198410117</t>
+          <t>05-20242024-03-S4--5103159334390443550</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2715,12 +2715,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Lot2 HVAC PA (BACSAN)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -2730,12 +2730,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>04-20232023-01-S4-594446333198410117</t>
+          <t>05-20242024-02-S4--5103159334390443550</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Lot2 HVAC PA (BACSAN)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -2774,12 +2774,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>04-20232022-12-S4-594446333198410117</t>
+          <t>05-20242024-01-S4--5103159334390443550</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2803,12 +2803,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Lot2 HVAC PA (BACSAN)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -2818,12 +2818,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>04-20232022-11-S4-594446333198410117</t>
+          <t>05-20242023-12-S4--5103159334390443550</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2847,12 +2847,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Lot2 HVAC PA (BACSAN)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -2862,12 +2862,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>04-20232022-10-S4-594446333198410117</t>
+          <t>05-20242023-11-S4--5103159334390443550</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2891,12 +2891,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Lot2 HVAC PA (BACSAN)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -2906,12 +2906,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>04-20232022-09-S4-594446333198410117</t>
+          <t>05-20242023-10-S4--5103159334390443550</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2935,12 +2935,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Lot2 HVAC PA (BACSAN)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -2950,12 +2950,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>04-20232022-08-S4-594446333198410117</t>
+          <t>05-20242023-09-S4--5103159334390443550</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2979,12 +2979,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Lot2 HVAC PA (BACSAN)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -2994,12 +2994,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2022-07</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>04-20232022-07-S4-594446333198410117</t>
+          <t>05-20242023-08-S4--5103159334390443550</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3023,12 +3023,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Lot2 HVAC PA (BACSAN)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -3038,12 +3038,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>04-20232022-06-S4-594446333198410117</t>
+          <t>05-20242023-07-S4--5103159334390443550</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3067,12 +3067,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Lot2 HVAC PA (BACSAN)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -3082,12 +3082,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>04-20232022-05-S4-594446333198410117</t>
+          <t>05-20242023-06-S4--5103159334390443550</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3111,12 +3111,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Lot2 HVAC PA (BACSAN)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -3126,12 +3126,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>04-20232023-04-S4-8908429110671888467</t>
+          <t>05-20242024-05-S4-1952539833354006224</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -3170,12 +3170,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>04-20232023-03-S4-8908429110671888467</t>
+          <t>05-20242024-04-S4-1952539833354006224</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -3214,12 +3214,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>04-20232023-02-S4-8908429110671888467</t>
+          <t>05-20242024-03-S4-1952539833354006224</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -3258,12 +3258,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>04-20232023-01-S4-8908429110671888467</t>
+          <t>05-20242024-02-S4-1952539833354006224</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -3302,12 +3302,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>04-20232022-12-S4-8908429110671888467</t>
+          <t>05-20242024-01-S4-1952539833354006224</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -3346,12 +3346,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -3365,7 +3365,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>04-20232022-11-S4-8908429110671888467</t>
+          <t>05-20242023-12-S4-1952539833354006224</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -3390,12 +3390,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>04-20232022-10-S4-8908429110671888467</t>
+          <t>05-20242023-11-S4-1952539833354006224</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3424,7 +3424,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -3434,12 +3434,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>04-20232022-09-S4-8908429110671888467</t>
+          <t>05-20242023-10-S4-1952539833354006224</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -3478,12 +3478,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>04-20232022-08-S4-8908429110671888467</t>
+          <t>05-20242023-09-S4-1952539833354006224</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -3522,12 +3522,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2022-07</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>04-20232022-07-S4-8908429110671888467</t>
+          <t>05-20242023-08-S4-1952539833354006224</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -3566,12 +3566,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>04-20232022-06-S4-8908429110671888467</t>
+          <t>05-20242023-07-S4-1952539833354006224</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -3610,12 +3610,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>04-20232022-05-S4-8908429110671888467</t>
+          <t>05-20242023-06-S4-1952539833354006224</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -3654,12 +3654,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>04-20232023-04-S4-2439177786061630189</t>
+          <t>05-20242024-05-S4--4829760942117343089</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -3698,12 +3698,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>04-20232023-03-S4-2439177786061630189</t>
+          <t>05-20242024-04-S4--4829760942117343089</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -3742,12 +3742,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>04-20232023-02-S4-2439177786061630189</t>
+          <t>05-20242024-03-S4--4829760942117343089</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -3786,12 +3786,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>04-20232023-01-S4-2439177786061630189</t>
+          <t>05-20242024-02-S4--4829760942117343089</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -3830,12 +3830,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -3849,7 +3849,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>04-20232022-12-S4-2439177786061630189</t>
+          <t>05-20242024-01-S4--4829760942117343089</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -3874,12 +3874,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>04-20232022-11-S4-2439177786061630189</t>
+          <t>05-20242023-12-S4--4829760942117343089</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -3918,12 +3918,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -3937,7 +3937,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>04-20232022-10-S4-2439177786061630189</t>
+          <t>05-20242023-11-S4--4829760942117343089</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -3962,12 +3962,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>04-20232022-09-S4-2439177786061630189</t>
+          <t>05-20242023-10-S4--4829760942117343089</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -4006,12 +4006,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>04-20232022-08-S4-2439177786061630189</t>
+          <t>05-20242023-09-S4--4829760942117343089</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -4050,12 +4050,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2022-07</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>04-20232022-07-S4-2439177786061630189</t>
+          <t>05-20242023-08-S4--4829760942117343089</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -4094,12 +4094,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>04-20232022-06-S4-2439177786061630189</t>
+          <t>05-20242023-07-S4--4829760942117343089</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -4138,12 +4138,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -4157,7 +4157,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>04-20232022-05-S4-2439177786061630189</t>
+          <t>05-20242023-06-S4--4829760942117343089</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -4182,12 +4182,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>04-20232023-04-S4--1884271701237151958</t>
+          <t>05-20242024-05-S4--6677296207247214992</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -4226,12 +4226,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -4245,7 +4245,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>04-20232023-03-S4--1884271701237151958</t>
+          <t>05-20242024-04-S4--6677296207247214992</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -4270,12 +4270,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>04-20232023-02-S4--1884271701237151958</t>
+          <t>05-20242024-03-S4--6677296207247214992</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -4314,12 +4314,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -4333,7 +4333,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>04-20232023-01-S4--1884271701237151958</t>
+          <t>05-20242024-02-S4--6677296207247214992</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -4358,12 +4358,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -4377,7 +4377,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>04-20232022-12-S4--1884271701237151958</t>
+          <t>05-20242024-01-S4--6677296207247214992</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -4402,12 +4402,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>04-20232022-11-S4--1884271701237151958</t>
+          <t>05-20242023-12-S4--6677296207247214992</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -4446,12 +4446,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -4465,7 +4465,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>04-20232022-10-S4--1884271701237151958</t>
+          <t>05-20242023-11-S4--6677296207247214992</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -4490,12 +4490,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>04-20232022-09-S4--1884271701237151958</t>
+          <t>05-20242023-10-S4--6677296207247214992</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -4534,12 +4534,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>04-20232022-08-S4--1884271701237151958</t>
+          <t>05-20242023-09-S4--6677296207247214992</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -4578,12 +4578,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2022-07</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -4597,7 +4597,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>04-20232022-07-S4--1884271701237151958</t>
+          <t>05-20242023-08-S4--6677296207247214992</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4612,7 +4612,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -4622,12 +4622,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>04-20232022-06-S4--1884271701237151958</t>
+          <t>05-20242023-07-S4--6677296207247214992</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -4666,12 +4666,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>04-20232022-05-S4--1884271701237151958</t>
+          <t>05-20242023-06-S4--6677296207247214992</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -4710,12 +4710,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>04-20232023-04-S4-8316327727429108470</t>
+          <t>05-20242024-05-S4--6239022663596257477</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -4754,12 +4754,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>04-20232023-03-S4-8316327727429108470</t>
+          <t>05-20242024-04-S4--6239022663596257477</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -4798,12 +4798,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -4817,7 +4817,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>04-20232023-02-S4-8316327727429108470</t>
+          <t>05-20242024-03-S4--6239022663596257477</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -4842,12 +4842,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>04-20232023-01-S4-8316327727429108470</t>
+          <t>05-20242024-02-S4--6239022663596257477</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -4886,12 +4886,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -4905,7 +4905,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>04-20232022-12-S4-8316327727429108470</t>
+          <t>05-20242024-01-S4--6239022663596257477</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4920,7 +4920,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -4930,12 +4930,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -4949,7 +4949,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>04-20232022-11-S4-8316327727429108470</t>
+          <t>05-20242023-12-S4--6239022663596257477</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -4974,12 +4974,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -4993,7 +4993,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>04-20232022-10-S4-8316327727429108470</t>
+          <t>05-20242023-11-S4--6239022663596257477</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -5018,12 +5018,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>04-20232022-09-S4-8316327727429108470</t>
+          <t>05-20242023-10-S4--6239022663596257477</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5052,7 +5052,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -5062,12 +5062,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>04-20232022-08-S4-8316327727429108470</t>
+          <t>05-20242023-09-S4--6239022663596257477</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -5106,12 +5106,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2022-07</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -5125,7 +5125,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>04-20232022-07-S4-8316327727429108470</t>
+          <t>05-20242023-08-S4--6239022663596257477</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -5150,12 +5150,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>04-20232022-06-S4-8316327727429108470</t>
+          <t>05-20242023-07-S4--6239022663596257477</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5184,7 +5184,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -5194,12 +5194,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -5213,7 +5213,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>04-20232022-05-S4-8316327727429108470</t>
+          <t>05-20242023-06-S4--6239022663596257477</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -5238,12 +5238,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>04-20232023-04-S4--6810404794422180469</t>
+          <t>05-20242024-05-S4--2347406060834608836</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -5282,12 +5282,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>04-20232023-03-S4--6810404794422180469</t>
+          <t>05-20242024-04-S4--2347406060834608836</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -5326,12 +5326,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>04-20232023-02-S4--6810404794422180469</t>
+          <t>05-20242024-03-S4--2347406060834608836</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5360,7 +5360,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -5370,12 +5370,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>04-20232023-01-S4--6810404794422180469</t>
+          <t>05-20242024-02-S4--2347406060834608836</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -5414,12 +5414,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -5433,7 +5433,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>04-20232022-12-S4--6810404794422180469</t>
+          <t>05-20242024-01-S4--2347406060834608836</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
@@ -5458,12 +5458,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>04-20232022-11-S4--6810404794422180469</t>
+          <t>05-20242023-12-S4--2347406060834608836</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5492,7 +5492,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-06</t>
         </is>
       </c>
     </row>
